--- a/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\data\raw\FORESTRYdata\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.40.1.138\Bird Research\BBSTW\15_計畫\臺灣獼猴族群監測計畫\與林務局合作監測\各林管處的獼猴調查結果\2020\2_林管處_檢核完成\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1313,7 +1313,7 @@
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16867,8 +16867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16994,9 +16994,7 @@
       <c r="O2" s="17">
         <v>39</v>
       </c>
-      <c r="P2" s="19">
-        <v>0</v>
-      </c>
+      <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
       <c r="S2" s="20" t="s">
@@ -17048,9 +17046,7 @@
       <c r="O3" s="17">
         <v>30</v>
       </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
+      <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
       <c r="S3" s="20" t="s">
@@ -17102,9 +17098,7 @@
       <c r="O4" s="17">
         <v>19</v>
       </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
+      <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="20" t="s">
@@ -17272,9 +17266,7 @@
       <c r="O7" s="17">
         <v>50</v>
       </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
+      <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="20" t="s">
@@ -17326,9 +17318,7 @@
       <c r="O8" s="17">
         <v>57</v>
       </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
+      <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="20" t="s">
@@ -17380,9 +17370,7 @@
       <c r="O9" s="17">
         <v>47</v>
       </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
+      <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="20" t="s">
@@ -17434,9 +17422,7 @@
       <c r="O10" s="17">
         <v>36</v>
       </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
+      <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="20" t="s">
@@ -17604,9 +17590,7 @@
       <c r="O13" s="17">
         <v>5</v>
       </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
+      <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="20" t="s">
@@ -17716,9 +17700,7 @@
       <c r="O15" s="17">
         <v>26</v>
       </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
+      <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="20" t="s">
@@ -17770,9 +17752,7 @@
       <c r="O16" s="17">
         <v>38</v>
       </c>
-      <c r="P16" s="19">
-        <v>0</v>
-      </c>
+      <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="20" t="s">
@@ -17882,9 +17862,7 @@
       <c r="O18" s="17">
         <v>2</v>
       </c>
-      <c r="P18" s="19">
-        <v>0</v>
-      </c>
+      <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="19"/>
       <c r="S18" s="20" t="s">
@@ -17994,9 +17972,7 @@
       <c r="O20" s="17">
         <v>10</v>
       </c>
-      <c r="P20" s="19">
-        <v>0</v>
-      </c>
+      <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="20" t="s">
@@ -18048,9 +18024,7 @@
       <c r="O21" s="17">
         <v>20</v>
       </c>
-      <c r="P21" s="19">
-        <v>0</v>
-      </c>
+      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="20" t="s">
@@ -18102,9 +18076,7 @@
       <c r="O22" s="17">
         <v>32</v>
       </c>
-      <c r="P22" s="19">
-        <v>0</v>
-      </c>
+      <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="20" t="s">
@@ -18156,9 +18128,7 @@
       <c r="O23" s="17">
         <v>43</v>
       </c>
-      <c r="P23" s="19">
-        <v>0</v>
-      </c>
+      <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="20" t="s">
@@ -18210,9 +18180,7 @@
       <c r="O24" s="17">
         <v>53</v>
       </c>
-      <c r="P24" s="19">
-        <v>0</v>
-      </c>
+      <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="20" t="s">
@@ -18264,9 +18232,7 @@
       <c r="O25" s="17">
         <v>5</v>
       </c>
-      <c r="P25" s="19">
-        <v>0</v>
-      </c>
+      <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="20" t="s">
@@ -18318,9 +18284,7 @@
       <c r="O26" s="17">
         <v>40</v>
       </c>
-      <c r="P26" s="19">
-        <v>0</v>
-      </c>
+      <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20" t="s">
@@ -18372,9 +18336,7 @@
       <c r="O27" s="17">
         <v>29</v>
       </c>
-      <c r="P27" s="19">
-        <v>0</v>
-      </c>
+      <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="20" t="s">
@@ -18426,9 +18388,7 @@
       <c r="O28" s="17">
         <v>20</v>
       </c>
-      <c r="P28" s="19">
-        <v>0</v>
-      </c>
+      <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="20" t="s">
@@ -18480,9 +18440,7 @@
       <c r="O29" s="17">
         <v>12</v>
       </c>
-      <c r="P29" s="19">
-        <v>0</v>
-      </c>
+      <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="20" t="s">
@@ -18534,9 +18492,7 @@
       <c r="O30" s="17">
         <v>53</v>
       </c>
-      <c r="P30" s="19">
-        <v>0</v>
-      </c>
+      <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="20" t="s">
@@ -18588,9 +18544,7 @@
       <c r="O31" s="17">
         <v>4</v>
       </c>
-      <c r="P31" s="19">
-        <v>0</v>
-      </c>
+      <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="20" t="s">
@@ -18642,9 +18596,7 @@
       <c r="O32" s="17">
         <v>15</v>
       </c>
-      <c r="P32" s="19">
-        <v>0</v>
-      </c>
+      <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="20" t="s">
@@ -18754,9 +18706,7 @@
       <c r="O34" s="17">
         <v>32</v>
       </c>
-      <c r="P34" s="19">
-        <v>0</v>
-      </c>
+      <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="20" t="s">
@@ -18808,9 +18758,7 @@
       <c r="O35" s="17">
         <v>43</v>
       </c>
-      <c r="P35" s="19">
-        <v>0</v>
-      </c>
+      <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="20" t="s">
@@ -18920,9 +18868,7 @@
       <c r="O37" s="17">
         <v>0</v>
       </c>
-      <c r="P37" s="19">
-        <v>0</v>
-      </c>
+      <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="20" t="s">
@@ -19090,9 +19036,7 @@
       <c r="O40" s="17">
         <v>26</v>
       </c>
-      <c r="P40" s="19">
-        <v>0</v>
-      </c>
+      <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="20" t="s">
@@ -19144,9 +19088,7 @@
       <c r="O41" s="17">
         <v>33</v>
       </c>
-      <c r="P41" s="19">
-        <v>0</v>
-      </c>
+      <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="20" t="s">
@@ -19198,9 +19140,7 @@
       <c r="O42" s="17">
         <v>42</v>
       </c>
-      <c r="P42" s="19">
-        <v>0</v>
-      </c>
+      <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="20" t="s">
@@ -19368,9 +19308,7 @@
       <c r="O45" s="17">
         <v>2</v>
       </c>
-      <c r="P45" s="19">
-        <v>0</v>
-      </c>
+      <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="20" t="s">
@@ -19480,9 +19418,7 @@
       <c r="O47" s="17">
         <v>19</v>
       </c>
-      <c r="P47" s="19">
-        <v>0</v>
-      </c>
+      <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="20" t="s">
@@ -19534,9 +19470,7 @@
       <c r="O48" s="17">
         <v>30</v>
       </c>
-      <c r="P48" s="19">
-        <v>0</v>
-      </c>
+      <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="20" t="s">
@@ -19588,9 +19522,7 @@
       <c r="O49" s="17">
         <v>45</v>
       </c>
-      <c r="P49" s="19">
-        <v>0</v>
-      </c>
+      <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="20" t="s">
@@ -19758,9 +19690,7 @@
       <c r="O52" s="17">
         <v>40</v>
       </c>
-      <c r="P52" s="19">
-        <v>0</v>
-      </c>
+      <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="20" t="s">
@@ -19870,9 +19800,7 @@
       <c r="O54" s="17">
         <v>27</v>
       </c>
-      <c r="P54" s="19">
-        <v>0</v>
-      </c>
+      <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="20" t="s">
@@ -19924,9 +19852,7 @@
       <c r="O55" s="17">
         <v>20</v>
       </c>
-      <c r="P55" s="19">
-        <v>0</v>
-      </c>
+      <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="20" t="s">
@@ -19980,9 +19906,7 @@
       <c r="O56" s="17">
         <v>55</v>
       </c>
-      <c r="P56" s="19">
-        <v>0</v>
-      </c>
+      <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="20" t="s">
@@ -20036,9 +19960,7 @@
       <c r="O57" s="17">
         <v>3</v>
       </c>
-      <c r="P57" s="19">
-        <v>0</v>
-      </c>
+      <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="20" t="s">
@@ -20152,9 +20074,7 @@
       <c r="O59" s="17">
         <v>18</v>
       </c>
-      <c r="P59" s="19">
-        <v>0</v>
-      </c>
+      <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="20" t="s">
@@ -20208,9 +20128,7 @@
       <c r="O60" s="17">
         <v>26</v>
       </c>
-      <c r="P60" s="19">
-        <v>0</v>
-      </c>
+      <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="20" t="s">
@@ -20380,9 +20298,7 @@
       <c r="O63" s="17">
         <v>44</v>
       </c>
-      <c r="P63" s="19">
-        <v>0</v>
-      </c>
+      <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="20" t="s">
@@ -20434,9 +20350,7 @@
       <c r="O64" s="17">
         <v>57</v>
       </c>
-      <c r="P64" s="19">
-        <v>0</v>
-      </c>
+      <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="20" t="s">
@@ -20488,9 +20402,7 @@
       <c r="O65" s="17">
         <v>5</v>
       </c>
-      <c r="P65" s="19">
-        <v>0</v>
-      </c>
+      <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="20" t="s">
@@ -20542,9 +20454,7 @@
       <c r="O66" s="17">
         <v>15</v>
       </c>
-      <c r="P66" s="19">
-        <v>0</v>
-      </c>
+      <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="20" t="s">
@@ -20596,9 +20506,7 @@
       <c r="O67" s="17">
         <v>26</v>
       </c>
-      <c r="P67" s="19">
-        <v>0</v>
-      </c>
+      <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="20" t="s">
@@ -20650,9 +20558,7 @@
       <c r="O68" s="17">
         <v>32</v>
       </c>
-      <c r="P68" s="19">
-        <v>0</v>
-      </c>
+      <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="20" t="s">
@@ -20704,9 +20610,7 @@
       <c r="O69" s="17">
         <v>42</v>
       </c>
-      <c r="P69" s="19">
-        <v>0</v>
-      </c>
+      <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="20" t="s">
@@ -20758,9 +20662,7 @@
       <c r="O70" s="17">
         <v>56</v>
       </c>
-      <c r="P70" s="19">
-        <v>0</v>
-      </c>
+      <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="20" t="s">
@@ -20812,9 +20714,7 @@
       <c r="O71" s="17">
         <v>5</v>
       </c>
-      <c r="P71" s="19">
-        <v>0</v>
-      </c>
+      <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="20" t="s">
@@ -20866,9 +20766,7 @@
       <c r="O72" s="17">
         <v>16</v>
       </c>
-      <c r="P72" s="19">
-        <v>0</v>
-      </c>
+      <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="20" t="s">
@@ -20920,9 +20818,7 @@
       <c r="O73" s="17">
         <v>26</v>
       </c>
-      <c r="P73" s="19">
-        <v>0</v>
-      </c>
+      <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="20" t="s">
@@ -20974,9 +20870,7 @@
       <c r="O74" s="17">
         <v>18</v>
       </c>
-      <c r="P74" s="19">
-        <v>0</v>
-      </c>
+      <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="20" t="s">
@@ -21028,9 +20922,7 @@
       <c r="O75" s="17">
         <v>35</v>
       </c>
-      <c r="P75" s="19">
-        <v>0</v>
-      </c>
+      <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="20" t="s">
@@ -21082,9 +20974,7 @@
       <c r="O76" s="17">
         <v>46</v>
       </c>
-      <c r="P76" s="19">
-        <v>0</v>
-      </c>
+      <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="20" t="s">
@@ -21136,9 +21026,7 @@
       <c r="O77" s="17">
         <v>0</v>
       </c>
-      <c r="P77" s="19">
-        <v>0</v>
-      </c>
+      <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="20" t="s">
@@ -21190,9 +21078,7 @@
       <c r="O78" s="17">
         <v>15</v>
       </c>
-      <c r="P78" s="19">
-        <v>0</v>
-      </c>
+      <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="20" t="s">
@@ -21244,9 +21130,7 @@
       <c r="O79" s="17">
         <v>28</v>
       </c>
-      <c r="P79" s="19">
-        <v>0</v>
-      </c>
+      <c r="P79" s="19"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="20" t="s">
@@ -21356,9 +21240,7 @@
       <c r="O81" s="17">
         <v>6</v>
       </c>
-      <c r="P81" s="19">
-        <v>0</v>
-      </c>
+      <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="20" t="s">
@@ -21526,9 +21408,7 @@
       <c r="O84" s="17">
         <v>40</v>
       </c>
-      <c r="P84" s="19">
-        <v>0</v>
-      </c>
+      <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="20" t="s">
@@ -21580,9 +21460,7 @@
       <c r="O85" s="17">
         <v>49</v>
       </c>
-      <c r="P85" s="19">
-        <v>0</v>
-      </c>
+      <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="20" t="s">
@@ -21692,9 +21570,7 @@
       <c r="O87" s="17">
         <v>50</v>
       </c>
-      <c r="P87" s="19">
-        <v>0</v>
-      </c>
+      <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="20" t="s">
@@ -21746,9 +21622,7 @@
       <c r="O88" s="17">
         <v>10</v>
       </c>
-      <c r="P88" s="19">
-        <v>0</v>
-      </c>
+      <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="20" t="s">
@@ -21800,9 +21674,7 @@
       <c r="O89" s="17">
         <v>20</v>
       </c>
-      <c r="P89" s="19">
-        <v>0</v>
-      </c>
+      <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="20" t="s">
@@ -21912,9 +21784,7 @@
       <c r="O91" s="17">
         <v>20</v>
       </c>
-      <c r="P91" s="19">
-        <v>0</v>
-      </c>
+      <c r="P91" s="19"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="20" t="s">
@@ -22024,9 +21894,7 @@
       <c r="O93" s="17">
         <v>25</v>
       </c>
-      <c r="P93" s="19">
-        <v>0</v>
-      </c>
+      <c r="P93" s="19"/>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="20" t="s">
@@ -22136,9 +22004,7 @@
       <c r="O95" s="17">
         <v>0</v>
       </c>
-      <c r="P95" s="19">
-        <v>0</v>
-      </c>
+      <c r="P95" s="19"/>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="20" t="s">
@@ -22192,9 +22058,7 @@
       <c r="O96" s="17">
         <v>48</v>
       </c>
-      <c r="P96" s="19">
-        <v>0</v>
-      </c>
+      <c r="P96" s="19"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="20" t="s">
@@ -22246,9 +22110,7 @@
       <c r="O97" s="17">
         <v>5</v>
       </c>
-      <c r="P97" s="19">
-        <v>0</v>
-      </c>
+      <c r="P97" s="19"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="20" t="s">
@@ -22358,9 +22220,7 @@
       <c r="O99" s="17">
         <v>37</v>
       </c>
-      <c r="P99" s="19">
-        <v>0</v>
-      </c>
+      <c r="P99" s="19"/>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="20" t="s">
@@ -22412,9 +22272,7 @@
       <c r="O100" s="17">
         <v>50</v>
       </c>
-      <c r="P100" s="19">
-        <v>0</v>
-      </c>
+      <c r="P100" s="19"/>
       <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
       <c r="S100" s="20" t="s">
@@ -22466,9 +22324,7 @@
       <c r="O101" s="17">
         <v>3</v>
       </c>
-      <c r="P101" s="19">
-        <v>0</v>
-      </c>
+      <c r="P101" s="19"/>
       <c r="Q101" s="19"/>
       <c r="R101" s="19"/>
       <c r="S101" s="20" t="s">
@@ -22520,9 +22376,7 @@
       <c r="O102" s="17">
         <v>13</v>
       </c>
-      <c r="P102" s="19">
-        <v>0</v>
-      </c>
+      <c r="P102" s="19"/>
       <c r="Q102" s="19"/>
       <c r="R102" s="19"/>
       <c r="S102" s="20" t="s">
@@ -22574,9 +22428,7 @@
       <c r="O103" s="17">
         <v>24</v>
       </c>
-      <c r="P103" s="19">
-        <v>0</v>
-      </c>
+      <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="20" t="s">
@@ -22686,9 +22538,7 @@
       <c r="O105" s="17">
         <v>51</v>
       </c>
-      <c r="P105" s="19">
-        <v>0</v>
-      </c>
+      <c r="P105" s="19"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
       <c r="S105" s="20" t="s">
@@ -22740,9 +22590,7 @@
       <c r="O106" s="17">
         <v>3</v>
       </c>
-      <c r="P106" s="19">
-        <v>0</v>
-      </c>
+      <c r="P106" s="19"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
       <c r="S106" s="20" t="s">
@@ -22794,9 +22642,7 @@
       <c r="O107" s="17">
         <v>11</v>
       </c>
-      <c r="P107" s="19">
-        <v>0</v>
-      </c>
+      <c r="P107" s="19"/>
       <c r="Q107" s="19"/>
       <c r="R107" s="19"/>
       <c r="S107" s="20" t="s">
@@ -22848,9 +22694,7 @@
       <c r="O108" s="17">
         <v>19</v>
       </c>
-      <c r="P108" s="19">
-        <v>0</v>
-      </c>
+      <c r="P108" s="19"/>
       <c r="Q108" s="19"/>
       <c r="R108" s="19"/>
       <c r="S108" s="20" t="s">
@@ -22902,9 +22746,7 @@
       <c r="O109" s="17">
         <v>26</v>
       </c>
-      <c r="P109" s="19">
-        <v>0</v>
-      </c>
+      <c r="P109" s="19"/>
       <c r="Q109" s="19"/>
       <c r="R109" s="19"/>
       <c r="S109" s="20" t="s">
@@ -22956,9 +22798,7 @@
       <c r="O110" s="17">
         <v>34</v>
       </c>
-      <c r="P110" s="19">
-        <v>0</v>
-      </c>
+      <c r="P110" s="19"/>
       <c r="Q110" s="19"/>
       <c r="R110" s="19"/>
       <c r="S110" s="20" t="s">
@@ -23068,9 +22908,7 @@
       <c r="O112" s="17">
         <v>2</v>
       </c>
-      <c r="P112" s="19">
-        <v>0</v>
-      </c>
+      <c r="P112" s="19"/>
       <c r="Q112" s="19"/>
       <c r="R112" s="19"/>
       <c r="S112" s="20" t="s">
@@ -23180,9 +23018,7 @@
       <c r="O114" s="17">
         <v>24</v>
       </c>
-      <c r="P114" s="19">
-        <v>0</v>
-      </c>
+      <c r="P114" s="19"/>
       <c r="Q114" s="19"/>
       <c r="R114" s="19"/>
       <c r="S114" s="20" t="s">
@@ -23234,9 +23070,7 @@
       <c r="O115" s="17">
         <v>40</v>
       </c>
-      <c r="P115" s="19">
-        <v>0</v>
-      </c>
+      <c r="P115" s="19"/>
       <c r="Q115" s="19"/>
       <c r="R115" s="19"/>
       <c r="S115" s="20" t="s">
@@ -23288,9 +23122,7 @@
       <c r="O116" s="17">
         <v>45</v>
       </c>
-      <c r="P116" s="19">
-        <v>0</v>
-      </c>
+      <c r="P116" s="19"/>
       <c r="Q116" s="19"/>
       <c r="R116" s="19"/>
       <c r="S116" s="20" t="s">
@@ -23342,9 +23174,7 @@
       <c r="O117" s="17">
         <v>0</v>
       </c>
-      <c r="P117" s="19">
-        <v>0</v>
-      </c>
+      <c r="P117" s="19"/>
       <c r="Q117" s="19"/>
       <c r="R117" s="19"/>
       <c r="S117" s="20" t="s">
@@ -23454,9 +23284,7 @@
       <c r="O119" s="17">
         <v>25</v>
       </c>
-      <c r="P119" s="19">
-        <v>0</v>
-      </c>
+      <c r="P119" s="19"/>
       <c r="Q119" s="19"/>
       <c r="R119" s="19"/>
       <c r="S119" s="20" t="s">
@@ -23508,9 +23336,7 @@
       <c r="O120" s="17">
         <v>37</v>
       </c>
-      <c r="P120" s="19">
-        <v>0</v>
-      </c>
+      <c r="P120" s="19"/>
       <c r="Q120" s="19"/>
       <c r="R120" s="19"/>
       <c r="S120" s="20" t="s">
@@ -23562,9 +23388,7 @@
       <c r="O121" s="17">
         <v>50</v>
       </c>
-      <c r="P121" s="19">
-        <v>0</v>
-      </c>
+      <c r="P121" s="19"/>
       <c r="Q121" s="19"/>
       <c r="R121" s="19"/>
       <c r="S121" s="20" t="s">
@@ -23616,9 +23440,7 @@
       <c r="O122" s="17">
         <v>10</v>
       </c>
-      <c r="P122" s="19">
-        <v>0</v>
-      </c>
+      <c r="P122" s="19"/>
       <c r="Q122" s="19"/>
       <c r="R122" s="19"/>
       <c r="S122" s="20" t="s">
@@ -23670,9 +23492,7 @@
       <c r="O123" s="17">
         <v>30</v>
       </c>
-      <c r="P123" s="19">
-        <v>0</v>
-      </c>
+      <c r="P123" s="19"/>
       <c r="Q123" s="19"/>
       <c r="R123" s="19"/>
       <c r="S123" s="20" t="s">
@@ -23840,9 +23660,7 @@
       <c r="O126" s="17">
         <v>47</v>
       </c>
-      <c r="P126" s="19">
-        <v>0</v>
-      </c>
+      <c r="P126" s="19"/>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
       <c r="S126" s="20" t="s">
@@ -23894,9 +23712,7 @@
       <c r="O127" s="17">
         <v>0</v>
       </c>
-      <c r="P127" s="19">
-        <v>0</v>
-      </c>
+      <c r="P127" s="19"/>
       <c r="Q127" s="19"/>
       <c r="R127" s="19"/>
       <c r="S127" s="20" t="s">
@@ -23948,9 +23764,7 @@
       <c r="O128" s="17">
         <v>30</v>
       </c>
-      <c r="P128" s="19">
-        <v>0</v>
-      </c>
+      <c r="P128" s="19"/>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="20" t="s">
@@ -24002,9 +23816,7 @@
       <c r="O129" s="17">
         <v>45</v>
       </c>
-      <c r="P129" s="19">
-        <v>0</v>
-      </c>
+      <c r="P129" s="19"/>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
       <c r="S129" s="20" t="s">
@@ -24114,9 +23926,7 @@
       <c r="O131" s="17">
         <v>28</v>
       </c>
-      <c r="P131" s="19">
-        <v>0</v>
-      </c>
+      <c r="P131" s="19"/>
       <c r="Q131" s="19"/>
       <c r="R131" s="19"/>
       <c r="S131" s="20" t="s">
@@ -24168,9 +23978,7 @@
       <c r="O132" s="17">
         <v>0</v>
       </c>
-      <c r="P132" s="19">
-        <v>0</v>
-      </c>
+      <c r="P132" s="19"/>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
       <c r="S132" s="20" t="s">
@@ -24224,9 +24032,7 @@
       <c r="O133" s="17">
         <v>38</v>
       </c>
-      <c r="P133" s="19">
-        <v>0</v>
-      </c>
+      <c r="P133" s="19"/>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
       <c r="S133" s="20" t="s">
@@ -24336,9 +24142,7 @@
       <c r="O135" s="17">
         <v>46</v>
       </c>
-      <c r="P135" s="19">
-        <v>0</v>
-      </c>
+      <c r="P135" s="19"/>
       <c r="Q135" s="19"/>
       <c r="R135" s="19"/>
       <c r="S135" s="20" t="s">
@@ -24390,9 +24194,7 @@
       <c r="O136" s="17">
         <v>58</v>
       </c>
-      <c r="P136" s="19">
-        <v>0</v>
-      </c>
+      <c r="P136" s="19"/>
       <c r="Q136" s="19"/>
       <c r="R136" s="19"/>
       <c r="S136" s="20" t="s">
@@ -24444,9 +24246,7 @@
       <c r="O137" s="17">
         <v>9</v>
       </c>
-      <c r="P137" s="19">
-        <v>0</v>
-      </c>
+      <c r="P137" s="19"/>
       <c r="Q137" s="19"/>
       <c r="R137" s="19"/>
       <c r="S137" s="20" t="s">
@@ -24498,9 +24298,7 @@
       <c r="O138" s="17">
         <v>19</v>
       </c>
-      <c r="P138" s="19">
-        <v>0</v>
-      </c>
+      <c r="P138" s="19"/>
       <c r="Q138" s="19"/>
       <c r="R138" s="19"/>
       <c r="S138" s="20" t="s">
@@ -24552,9 +24350,7 @@
       <c r="O139" s="17">
         <v>29</v>
       </c>
-      <c r="P139" s="19">
-        <v>0</v>
-      </c>
+      <c r="P139" s="19"/>
       <c r="Q139" s="19"/>
       <c r="R139" s="19"/>
       <c r="S139" s="20" t="s">
@@ -24580,10 +24376,10 @@
         <v>2020</v>
       </c>
       <c r="G140" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H140" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I140" s="17">
         <v>2</v>
@@ -24606,9 +24402,7 @@
       <c r="O140" s="17">
         <v>0</v>
       </c>
-      <c r="P140" s="19">
-        <v>0</v>
-      </c>
+      <c r="P140" s="19"/>
       <c r="Q140" s="19"/>
       <c r="R140" s="19"/>
       <c r="S140" s="20" t="s">
@@ -24660,9 +24454,7 @@
       <c r="O141" s="17">
         <v>11</v>
       </c>
-      <c r="P141" s="19">
-        <v>0</v>
-      </c>
+      <c r="P141" s="19"/>
       <c r="Q141" s="19"/>
       <c r="R141" s="19"/>
       <c r="S141" s="20" t="s">
@@ -24714,9 +24506,7 @@
       <c r="O142" s="17">
         <v>21</v>
       </c>
-      <c r="P142" s="19">
-        <v>0</v>
-      </c>
+      <c r="P142" s="19"/>
       <c r="Q142" s="19"/>
       <c r="R142" s="19"/>
       <c r="S142" s="20" t="s">
@@ -24768,9 +24558,7 @@
       <c r="O143" s="17">
         <v>31</v>
       </c>
-      <c r="P143" s="19">
-        <v>0</v>
-      </c>
+      <c r="P143" s="19"/>
       <c r="Q143" s="19"/>
       <c r="R143" s="19"/>
       <c r="S143" s="20" t="s">
@@ -24822,9 +24610,7 @@
       <c r="O144" s="17">
         <v>41</v>
       </c>
-      <c r="P144" s="19">
-        <v>0</v>
-      </c>
+      <c r="P144" s="19"/>
       <c r="Q144" s="19"/>
       <c r="R144" s="19"/>
       <c r="S144" s="20" t="s">
@@ -24876,9 +24662,7 @@
       <c r="O145" s="17">
         <v>51</v>
       </c>
-      <c r="P145" s="19">
-        <v>0</v>
-      </c>
+      <c r="P145" s="19"/>
       <c r="Q145" s="19"/>
       <c r="R145" s="19"/>
       <c r="S145" s="20" t="s">

--- a/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大武" sheetId="1" r:id="rId1"/>
@@ -1310,10 +1310,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW157"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1806,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>246713</v>
+        <v>243198</v>
       </c>
       <c r="M9" s="4">
-        <v>2495121</v>
+        <v>2498955</v>
       </c>
       <c r="N9" s="3">
         <v>9</v>
@@ -1859,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <v>246689</v>
+        <v>243389</v>
       </c>
       <c r="M10" s="4">
-        <v>2494908</v>
+        <v>2499053</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -1912,10 +1912,10 @@
         <v>4</v>
       </c>
       <c r="L11" s="4">
-        <v>246486</v>
+        <v>243598</v>
       </c>
       <c r="M11" s="4">
-        <v>2494826</v>
+        <v>2499122</v>
       </c>
       <c r="N11" s="3">
         <v>9</v>
@@ -1965,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>246578</v>
+        <v>243682</v>
       </c>
       <c r="M12" s="4">
-        <v>2494647</v>
+        <v>2499309</v>
       </c>
       <c r="N12" s="3">
         <v>10</v>
@@ -2018,10 +2018,10 @@
         <v>6</v>
       </c>
       <c r="L13" s="4">
-        <v>246534</v>
+        <v>243918</v>
       </c>
       <c r="M13" s="4">
-        <v>2494434</v>
+        <v>2499422</v>
       </c>
       <c r="N13" s="3">
         <v>10</v>
@@ -9827,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="I85" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -14590,11 +14590,11 @@
       <c r="K90" s="3">
         <v>5</v>
       </c>
-      <c r="L90" s="3">
-        <v>250257</v>
-      </c>
-      <c r="M90" s="3">
-        <v>2511245</v>
+      <c r="L90">
+        <v>254394</v>
+      </c>
+      <c r="M90">
+        <v>2515670</v>
       </c>
       <c r="N90" s="3">
         <v>10</v>
@@ -14640,11 +14640,11 @@
       <c r="K91" s="3">
         <v>6</v>
       </c>
-      <c r="L91" s="3">
-        <v>250499</v>
-      </c>
-      <c r="M91" s="3">
-        <v>2511105</v>
+      <c r="L91">
+        <v>254179</v>
+      </c>
+      <c r="M91">
+        <v>2515129</v>
       </c>
       <c r="N91" s="3">
         <v>10</v>
@@ -16867,8 +16867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="大武" sheetId="1" r:id="rId1"/>
@@ -9827,7 +9827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I85" workbookViewId="0">
+    <sheetView topLeftCell="I85" workbookViewId="0">
       <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
@@ -16867,8 +16867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16994,7 +16994,9 @@
       <c r="O2" s="17">
         <v>39</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
       <c r="S2" s="20" t="s">
@@ -17046,7 +17048,9 @@
       <c r="O3" s="17">
         <v>30</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
       <c r="S3" s="20" t="s">
@@ -17098,7 +17102,9 @@
       <c r="O4" s="17">
         <v>19</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="20" t="s">
@@ -17266,7 +17272,9 @@
       <c r="O7" s="17">
         <v>50</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="20" t="s">
@@ -17318,7 +17326,9 @@
       <c r="O8" s="17">
         <v>57</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="20" t="s">
@@ -17370,7 +17380,9 @@
       <c r="O9" s="17">
         <v>47</v>
       </c>
-      <c r="P9" s="19"/>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="20" t="s">
@@ -17422,7 +17434,9 @@
       <c r="O10" s="17">
         <v>36</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="20" t="s">
@@ -17590,7 +17604,9 @@
       <c r="O13" s="17">
         <v>5</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="20" t="s">
@@ -17700,7 +17716,9 @@
       <c r="O15" s="17">
         <v>26</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="20" t="s">
@@ -17752,7 +17770,9 @@
       <c r="O16" s="17">
         <v>38</v>
       </c>
-      <c r="P16" s="19"/>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="20" t="s">
@@ -17862,7 +17882,9 @@
       <c r="O18" s="17">
         <v>2</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="19"/>
       <c r="S18" s="20" t="s">
@@ -17972,7 +17994,9 @@
       <c r="O20" s="17">
         <v>10</v>
       </c>
-      <c r="P20" s="19"/>
+      <c r="P20" s="19">
+        <v>0</v>
+      </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="20" t="s">
@@ -18024,7 +18048,9 @@
       <c r="O21" s="17">
         <v>20</v>
       </c>
-      <c r="P21" s="19"/>
+      <c r="P21" s="19">
+        <v>0</v>
+      </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="20" t="s">
@@ -18076,7 +18102,9 @@
       <c r="O22" s="17">
         <v>32</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="20" t="s">
@@ -18128,7 +18156,9 @@
       <c r="O23" s="17">
         <v>43</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="19">
+        <v>0</v>
+      </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="20" t="s">
@@ -18180,7 +18210,9 @@
       <c r="O24" s="17">
         <v>53</v>
       </c>
-      <c r="P24" s="19"/>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="20" t="s">
@@ -18232,7 +18264,9 @@
       <c r="O25" s="17">
         <v>5</v>
       </c>
-      <c r="P25" s="19"/>
+      <c r="P25" s="19">
+        <v>0</v>
+      </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="20" t="s">
@@ -18284,7 +18318,9 @@
       <c r="O26" s="17">
         <v>40</v>
       </c>
-      <c r="P26" s="19"/>
+      <c r="P26" s="19">
+        <v>0</v>
+      </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="20" t="s">
@@ -18336,7 +18372,9 @@
       <c r="O27" s="17">
         <v>29</v>
       </c>
-      <c r="P27" s="19"/>
+      <c r="P27" s="19">
+        <v>0</v>
+      </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="20" t="s">
@@ -18388,7 +18426,9 @@
       <c r="O28" s="17">
         <v>20</v>
       </c>
-      <c r="P28" s="19"/>
+      <c r="P28" s="19">
+        <v>0</v>
+      </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="20" t="s">
@@ -18440,7 +18480,9 @@
       <c r="O29" s="17">
         <v>12</v>
       </c>
-      <c r="P29" s="19"/>
+      <c r="P29" s="19">
+        <v>0</v>
+      </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="20" t="s">
@@ -18492,7 +18534,9 @@
       <c r="O30" s="17">
         <v>53</v>
       </c>
-      <c r="P30" s="19"/>
+      <c r="P30" s="19">
+        <v>0</v>
+      </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="20" t="s">
@@ -18544,7 +18588,9 @@
       <c r="O31" s="17">
         <v>4</v>
       </c>
-      <c r="P31" s="19"/>
+      <c r="P31" s="19">
+        <v>0</v>
+      </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="20" t="s">
@@ -18596,7 +18642,9 @@
       <c r="O32" s="17">
         <v>15</v>
       </c>
-      <c r="P32" s="19"/>
+      <c r="P32" s="19">
+        <v>0</v>
+      </c>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="20" t="s">
@@ -18706,7 +18754,9 @@
       <c r="O34" s="17">
         <v>32</v>
       </c>
-      <c r="P34" s="19"/>
+      <c r="P34" s="19">
+        <v>0</v>
+      </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="20" t="s">
@@ -18758,7 +18808,9 @@
       <c r="O35" s="17">
         <v>43</v>
       </c>
-      <c r="P35" s="19"/>
+      <c r="P35" s="19">
+        <v>0</v>
+      </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="20" t="s">
@@ -18868,7 +18920,9 @@
       <c r="O37" s="17">
         <v>0</v>
       </c>
-      <c r="P37" s="19"/>
+      <c r="P37" s="19">
+        <v>0</v>
+      </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="20" t="s">
@@ -19036,7 +19090,9 @@
       <c r="O40" s="17">
         <v>26</v>
       </c>
-      <c r="P40" s="19"/>
+      <c r="P40" s="19">
+        <v>0</v>
+      </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="20" t="s">
@@ -19088,7 +19144,9 @@
       <c r="O41" s="17">
         <v>33</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="20" t="s">
@@ -19140,7 +19198,9 @@
       <c r="O42" s="17">
         <v>42</v>
       </c>
-      <c r="P42" s="19"/>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="20" t="s">
@@ -19308,7 +19368,9 @@
       <c r="O45" s="17">
         <v>2</v>
       </c>
-      <c r="P45" s="19"/>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="20" t="s">
@@ -19418,7 +19480,9 @@
       <c r="O47" s="17">
         <v>19</v>
       </c>
-      <c r="P47" s="19"/>
+      <c r="P47" s="19">
+        <v>0</v>
+      </c>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="20" t="s">
@@ -19470,7 +19534,9 @@
       <c r="O48" s="17">
         <v>30</v>
       </c>
-      <c r="P48" s="19"/>
+      <c r="P48" s="19">
+        <v>0</v>
+      </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="20" t="s">
@@ -19522,7 +19588,9 @@
       <c r="O49" s="17">
         <v>45</v>
       </c>
-      <c r="P49" s="19"/>
+      <c r="P49" s="19">
+        <v>0</v>
+      </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="20" t="s">
@@ -19690,7 +19758,9 @@
       <c r="O52" s="17">
         <v>40</v>
       </c>
-      <c r="P52" s="19"/>
+      <c r="P52" s="19">
+        <v>0</v>
+      </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="20" t="s">
@@ -19800,7 +19870,9 @@
       <c r="O54" s="17">
         <v>27</v>
       </c>
-      <c r="P54" s="19"/>
+      <c r="P54" s="19">
+        <v>0</v>
+      </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="20" t="s">
@@ -19852,7 +19924,9 @@
       <c r="O55" s="17">
         <v>20</v>
       </c>
-      <c r="P55" s="19"/>
+      <c r="P55" s="19">
+        <v>0</v>
+      </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="20" t="s">
@@ -19906,7 +19980,9 @@
       <c r="O56" s="17">
         <v>55</v>
       </c>
-      <c r="P56" s="19"/>
+      <c r="P56" s="19">
+        <v>0</v>
+      </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="20" t="s">
@@ -19960,7 +20036,9 @@
       <c r="O57" s="17">
         <v>3</v>
       </c>
-      <c r="P57" s="19"/>
+      <c r="P57" s="19">
+        <v>0</v>
+      </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="20" t="s">
@@ -20074,7 +20152,9 @@
       <c r="O59" s="17">
         <v>18</v>
       </c>
-      <c r="P59" s="19"/>
+      <c r="P59" s="19">
+        <v>0</v>
+      </c>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="20" t="s">
@@ -20128,7 +20208,9 @@
       <c r="O60" s="17">
         <v>26</v>
       </c>
-      <c r="P60" s="19"/>
+      <c r="P60" s="19">
+        <v>0</v>
+      </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="20" t="s">
@@ -20298,7 +20380,9 @@
       <c r="O63" s="17">
         <v>44</v>
       </c>
-      <c r="P63" s="19"/>
+      <c r="P63" s="19">
+        <v>0</v>
+      </c>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="20" t="s">
@@ -20350,7 +20434,9 @@
       <c r="O64" s="17">
         <v>57</v>
       </c>
-      <c r="P64" s="19"/>
+      <c r="P64" s="19">
+        <v>0</v>
+      </c>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="20" t="s">
@@ -20402,7 +20488,9 @@
       <c r="O65" s="17">
         <v>5</v>
       </c>
-      <c r="P65" s="19"/>
+      <c r="P65" s="19">
+        <v>0</v>
+      </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="20" t="s">
@@ -20454,7 +20542,9 @@
       <c r="O66" s="17">
         <v>15</v>
       </c>
-      <c r="P66" s="19"/>
+      <c r="P66" s="19">
+        <v>0</v>
+      </c>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="20" t="s">
@@ -20506,7 +20596,9 @@
       <c r="O67" s="17">
         <v>26</v>
       </c>
-      <c r="P67" s="19"/>
+      <c r="P67" s="19">
+        <v>0</v>
+      </c>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="20" t="s">
@@ -20558,7 +20650,9 @@
       <c r="O68" s="17">
         <v>32</v>
       </c>
-      <c r="P68" s="19"/>
+      <c r="P68" s="19">
+        <v>0</v>
+      </c>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="20" t="s">
@@ -20610,7 +20704,9 @@
       <c r="O69" s="17">
         <v>42</v>
       </c>
-      <c r="P69" s="19"/>
+      <c r="P69" s="19">
+        <v>0</v>
+      </c>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="20" t="s">
@@ -20662,7 +20758,9 @@
       <c r="O70" s="17">
         <v>56</v>
       </c>
-      <c r="P70" s="19"/>
+      <c r="P70" s="19">
+        <v>0</v>
+      </c>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="20" t="s">
@@ -20714,7 +20812,9 @@
       <c r="O71" s="17">
         <v>5</v>
       </c>
-      <c r="P71" s="19"/>
+      <c r="P71" s="19">
+        <v>0</v>
+      </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="20" t="s">
@@ -20766,7 +20866,9 @@
       <c r="O72" s="17">
         <v>16</v>
       </c>
-      <c r="P72" s="19"/>
+      <c r="P72" s="19">
+        <v>0</v>
+      </c>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="20" t="s">
@@ -20818,7 +20920,9 @@
       <c r="O73" s="17">
         <v>26</v>
       </c>
-      <c r="P73" s="19"/>
+      <c r="P73" s="19">
+        <v>0</v>
+      </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="20" t="s">
@@ -20870,7 +20974,9 @@
       <c r="O74" s="17">
         <v>18</v>
       </c>
-      <c r="P74" s="19"/>
+      <c r="P74" s="19">
+        <v>0</v>
+      </c>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="20" t="s">
@@ -20922,7 +21028,9 @@
       <c r="O75" s="17">
         <v>35</v>
       </c>
-      <c r="P75" s="19"/>
+      <c r="P75" s="19">
+        <v>0</v>
+      </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="20" t="s">
@@ -20974,7 +21082,9 @@
       <c r="O76" s="17">
         <v>46</v>
       </c>
-      <c r="P76" s="19"/>
+      <c r="P76" s="19">
+        <v>0</v>
+      </c>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="20" t="s">
@@ -21026,7 +21136,9 @@
       <c r="O77" s="17">
         <v>0</v>
       </c>
-      <c r="P77" s="19"/>
+      <c r="P77" s="19">
+        <v>0</v>
+      </c>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="20" t="s">
@@ -21078,7 +21190,9 @@
       <c r="O78" s="17">
         <v>15</v>
       </c>
-      <c r="P78" s="19"/>
+      <c r="P78" s="19">
+        <v>0</v>
+      </c>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="20" t="s">
@@ -21130,7 +21244,9 @@
       <c r="O79" s="17">
         <v>28</v>
       </c>
-      <c r="P79" s="19"/>
+      <c r="P79" s="19">
+        <v>0</v>
+      </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="20" t="s">
@@ -21240,7 +21356,9 @@
       <c r="O81" s="17">
         <v>6</v>
       </c>
-      <c r="P81" s="19"/>
+      <c r="P81" s="19">
+        <v>0</v>
+      </c>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="20" t="s">
@@ -21408,7 +21526,9 @@
       <c r="O84" s="17">
         <v>40</v>
       </c>
-      <c r="P84" s="19"/>
+      <c r="P84" s="19">
+        <v>0</v>
+      </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="20" t="s">
@@ -21460,7 +21580,9 @@
       <c r="O85" s="17">
         <v>49</v>
       </c>
-      <c r="P85" s="19"/>
+      <c r="P85" s="19">
+        <v>0</v>
+      </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="20" t="s">
@@ -21570,7 +21692,9 @@
       <c r="O87" s="17">
         <v>50</v>
       </c>
-      <c r="P87" s="19"/>
+      <c r="P87" s="19">
+        <v>0</v>
+      </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="20" t="s">
@@ -21622,7 +21746,9 @@
       <c r="O88" s="17">
         <v>10</v>
       </c>
-      <c r="P88" s="19"/>
+      <c r="P88" s="19">
+        <v>0</v>
+      </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="20" t="s">
@@ -21674,7 +21800,9 @@
       <c r="O89" s="17">
         <v>20</v>
       </c>
-      <c r="P89" s="19"/>
+      <c r="P89" s="19">
+        <v>0</v>
+      </c>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="20" t="s">
@@ -21784,7 +21912,9 @@
       <c r="O91" s="17">
         <v>20</v>
       </c>
-      <c r="P91" s="19"/>
+      <c r="P91" s="19">
+        <v>0</v>
+      </c>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="20" t="s">
@@ -21894,7 +22024,9 @@
       <c r="O93" s="17">
         <v>25</v>
       </c>
-      <c r="P93" s="19"/>
+      <c r="P93" s="19">
+        <v>0</v>
+      </c>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="20" t="s">
@@ -22004,7 +22136,9 @@
       <c r="O95" s="17">
         <v>0</v>
       </c>
-      <c r="P95" s="19"/>
+      <c r="P95" s="19">
+        <v>0</v>
+      </c>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="20" t="s">
@@ -22058,7 +22192,9 @@
       <c r="O96" s="17">
         <v>48</v>
       </c>
-      <c r="P96" s="19"/>
+      <c r="P96" s="19">
+        <v>0</v>
+      </c>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="20" t="s">
@@ -22110,7 +22246,9 @@
       <c r="O97" s="17">
         <v>5</v>
       </c>
-      <c r="P97" s="19"/>
+      <c r="P97" s="19">
+        <v>0</v>
+      </c>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="20" t="s">
@@ -22220,7 +22358,9 @@
       <c r="O99" s="17">
         <v>37</v>
       </c>
-      <c r="P99" s="19"/>
+      <c r="P99" s="19">
+        <v>0</v>
+      </c>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="20" t="s">
@@ -22272,7 +22412,9 @@
       <c r="O100" s="17">
         <v>50</v>
       </c>
-      <c r="P100" s="19"/>
+      <c r="P100" s="19">
+        <v>0</v>
+      </c>
       <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
       <c r="S100" s="20" t="s">
@@ -22324,7 +22466,9 @@
       <c r="O101" s="17">
         <v>3</v>
       </c>
-      <c r="P101" s="19"/>
+      <c r="P101" s="19">
+        <v>0</v>
+      </c>
       <c r="Q101" s="19"/>
       <c r="R101" s="19"/>
       <c r="S101" s="20" t="s">
@@ -22376,7 +22520,9 @@
       <c r="O102" s="17">
         <v>13</v>
       </c>
-      <c r="P102" s="19"/>
+      <c r="P102" s="19">
+        <v>0</v>
+      </c>
       <c r="Q102" s="19"/>
       <c r="R102" s="19"/>
       <c r="S102" s="20" t="s">
@@ -22428,7 +22574,9 @@
       <c r="O103" s="17">
         <v>24</v>
       </c>
-      <c r="P103" s="19"/>
+      <c r="P103" s="19">
+        <v>0</v>
+      </c>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="20" t="s">
@@ -22538,7 +22686,9 @@
       <c r="O105" s="17">
         <v>51</v>
       </c>
-      <c r="P105" s="19"/>
+      <c r="P105" s="19">
+        <v>0</v>
+      </c>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
       <c r="S105" s="20" t="s">
@@ -22590,7 +22740,9 @@
       <c r="O106" s="17">
         <v>3</v>
       </c>
-      <c r="P106" s="19"/>
+      <c r="P106" s="19">
+        <v>0</v>
+      </c>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
       <c r="S106" s="20" t="s">
@@ -22642,7 +22794,9 @@
       <c r="O107" s="17">
         <v>11</v>
       </c>
-      <c r="P107" s="19"/>
+      <c r="P107" s="19">
+        <v>0</v>
+      </c>
       <c r="Q107" s="19"/>
       <c r="R107" s="19"/>
       <c r="S107" s="20" t="s">
@@ -22694,7 +22848,9 @@
       <c r="O108" s="17">
         <v>19</v>
       </c>
-      <c r="P108" s="19"/>
+      <c r="P108" s="19">
+        <v>0</v>
+      </c>
       <c r="Q108" s="19"/>
       <c r="R108" s="19"/>
       <c r="S108" s="20" t="s">
@@ -22746,7 +22902,9 @@
       <c r="O109" s="17">
         <v>26</v>
       </c>
-      <c r="P109" s="19"/>
+      <c r="P109" s="19">
+        <v>0</v>
+      </c>
       <c r="Q109" s="19"/>
       <c r="R109" s="19"/>
       <c r="S109" s="20" t="s">
@@ -22798,7 +22956,9 @@
       <c r="O110" s="17">
         <v>34</v>
       </c>
-      <c r="P110" s="19"/>
+      <c r="P110" s="19">
+        <v>0</v>
+      </c>
       <c r="Q110" s="19"/>
       <c r="R110" s="19"/>
       <c r="S110" s="20" t="s">
@@ -22908,7 +23068,9 @@
       <c r="O112" s="17">
         <v>2</v>
       </c>
-      <c r="P112" s="19"/>
+      <c r="P112" s="19">
+        <v>0</v>
+      </c>
       <c r="Q112" s="19"/>
       <c r="R112" s="19"/>
       <c r="S112" s="20" t="s">
@@ -23018,7 +23180,9 @@
       <c r="O114" s="17">
         <v>24</v>
       </c>
-      <c r="P114" s="19"/>
+      <c r="P114" s="19">
+        <v>0</v>
+      </c>
       <c r="Q114" s="19"/>
       <c r="R114" s="19"/>
       <c r="S114" s="20" t="s">
@@ -23070,7 +23234,9 @@
       <c r="O115" s="17">
         <v>40</v>
       </c>
-      <c r="P115" s="19"/>
+      <c r="P115" s="19">
+        <v>0</v>
+      </c>
       <c r="Q115" s="19"/>
       <c r="R115" s="19"/>
       <c r="S115" s="20" t="s">
@@ -23122,7 +23288,9 @@
       <c r="O116" s="17">
         <v>45</v>
       </c>
-      <c r="P116" s="19"/>
+      <c r="P116" s="19">
+        <v>0</v>
+      </c>
       <c r="Q116" s="19"/>
       <c r="R116" s="19"/>
       <c r="S116" s="20" t="s">
@@ -23174,7 +23342,9 @@
       <c r="O117" s="17">
         <v>0</v>
       </c>
-      <c r="P117" s="19"/>
+      <c r="P117" s="19">
+        <v>0</v>
+      </c>
       <c r="Q117" s="19"/>
       <c r="R117" s="19"/>
       <c r="S117" s="20" t="s">
@@ -23284,7 +23454,9 @@
       <c r="O119" s="17">
         <v>25</v>
       </c>
-      <c r="P119" s="19"/>
+      <c r="P119" s="19">
+        <v>0</v>
+      </c>
       <c r="Q119" s="19"/>
       <c r="R119" s="19"/>
       <c r="S119" s="20" t="s">
@@ -23336,7 +23508,9 @@
       <c r="O120" s="17">
         <v>37</v>
       </c>
-      <c r="P120" s="19"/>
+      <c r="P120" s="19">
+        <v>0</v>
+      </c>
       <c r="Q120" s="19"/>
       <c r="R120" s="19"/>
       <c r="S120" s="20" t="s">
@@ -23388,7 +23562,9 @@
       <c r="O121" s="17">
         <v>50</v>
       </c>
-      <c r="P121" s="19"/>
+      <c r="P121" s="19">
+        <v>0</v>
+      </c>
       <c r="Q121" s="19"/>
       <c r="R121" s="19"/>
       <c r="S121" s="20" t="s">
@@ -23440,7 +23616,9 @@
       <c r="O122" s="17">
         <v>10</v>
       </c>
-      <c r="P122" s="19"/>
+      <c r="P122" s="19">
+        <v>0</v>
+      </c>
       <c r="Q122" s="19"/>
       <c r="R122" s="19"/>
       <c r="S122" s="20" t="s">
@@ -23492,7 +23670,9 @@
       <c r="O123" s="17">
         <v>30</v>
       </c>
-      <c r="P123" s="19"/>
+      <c r="P123" s="19">
+        <v>0</v>
+      </c>
       <c r="Q123" s="19"/>
       <c r="R123" s="19"/>
       <c r="S123" s="20" t="s">
@@ -23660,7 +23840,9 @@
       <c r="O126" s="17">
         <v>47</v>
       </c>
-      <c r="P126" s="19"/>
+      <c r="P126" s="19">
+        <v>0</v>
+      </c>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
       <c r="S126" s="20" t="s">
@@ -23712,7 +23894,9 @@
       <c r="O127" s="17">
         <v>0</v>
       </c>
-      <c r="P127" s="19"/>
+      <c r="P127" s="19">
+        <v>0</v>
+      </c>
       <c r="Q127" s="19"/>
       <c r="R127" s="19"/>
       <c r="S127" s="20" t="s">
@@ -23764,7 +23948,9 @@
       <c r="O128" s="17">
         <v>30</v>
       </c>
-      <c r="P128" s="19"/>
+      <c r="P128" s="19">
+        <v>0</v>
+      </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="20" t="s">
@@ -23816,7 +24002,9 @@
       <c r="O129" s="17">
         <v>45</v>
       </c>
-      <c r="P129" s="19"/>
+      <c r="P129" s="19">
+        <v>0</v>
+      </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
       <c r="S129" s="20" t="s">
@@ -23926,7 +24114,9 @@
       <c r="O131" s="17">
         <v>28</v>
       </c>
-      <c r="P131" s="19"/>
+      <c r="P131" s="19">
+        <v>0</v>
+      </c>
       <c r="Q131" s="19"/>
       <c r="R131" s="19"/>
       <c r="S131" s="20" t="s">
@@ -23978,7 +24168,9 @@
       <c r="O132" s="17">
         <v>0</v>
       </c>
-      <c r="P132" s="19"/>
+      <c r="P132" s="19">
+        <v>0</v>
+      </c>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
       <c r="S132" s="20" t="s">
@@ -24032,7 +24224,9 @@
       <c r="O133" s="17">
         <v>38</v>
       </c>
-      <c r="P133" s="19"/>
+      <c r="P133" s="19">
+        <v>0</v>
+      </c>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
       <c r="S133" s="20" t="s">
@@ -24142,7 +24336,9 @@
       <c r="O135" s="17">
         <v>46</v>
       </c>
-      <c r="P135" s="19"/>
+      <c r="P135" s="19">
+        <v>0</v>
+      </c>
       <c r="Q135" s="19"/>
       <c r="R135" s="19"/>
       <c r="S135" s="20" t="s">
@@ -24194,7 +24390,9 @@
       <c r="O136" s="17">
         <v>58</v>
       </c>
-      <c r="P136" s="19"/>
+      <c r="P136" s="19">
+        <v>0</v>
+      </c>
       <c r="Q136" s="19"/>
       <c r="R136" s="19"/>
       <c r="S136" s="20" t="s">
@@ -24246,7 +24444,9 @@
       <c r="O137" s="17">
         <v>9</v>
       </c>
-      <c r="P137" s="19"/>
+      <c r="P137" s="19">
+        <v>0</v>
+      </c>
       <c r="Q137" s="19"/>
       <c r="R137" s="19"/>
       <c r="S137" s="20" t="s">
@@ -24298,7 +24498,9 @@
       <c r="O138" s="17">
         <v>19</v>
       </c>
-      <c r="P138" s="19"/>
+      <c r="P138" s="19">
+        <v>0</v>
+      </c>
       <c r="Q138" s="19"/>
       <c r="R138" s="19"/>
       <c r="S138" s="20" t="s">
@@ -24350,7 +24552,9 @@
       <c r="O139" s="17">
         <v>29</v>
       </c>
-      <c r="P139" s="19"/>
+      <c r="P139" s="19">
+        <v>0</v>
+      </c>
       <c r="Q139" s="19"/>
       <c r="R139" s="19"/>
       <c r="S139" s="20" t="s">
@@ -24402,7 +24606,9 @@
       <c r="O140" s="17">
         <v>0</v>
       </c>
-      <c r="P140" s="19"/>
+      <c r="P140" s="19">
+        <v>0</v>
+      </c>
       <c r="Q140" s="19"/>
       <c r="R140" s="19"/>
       <c r="S140" s="20" t="s">
@@ -24454,7 +24660,9 @@
       <c r="O141" s="17">
         <v>11</v>
       </c>
-      <c r="P141" s="19"/>
+      <c r="P141" s="19">
+        <v>0</v>
+      </c>
       <c r="Q141" s="19"/>
       <c r="R141" s="19"/>
       <c r="S141" s="20" t="s">
@@ -24506,7 +24714,9 @@
       <c r="O142" s="17">
         <v>21</v>
       </c>
-      <c r="P142" s="19"/>
+      <c r="P142" s="19">
+        <v>0</v>
+      </c>
       <c r="Q142" s="19"/>
       <c r="R142" s="19"/>
       <c r="S142" s="20" t="s">
@@ -24558,7 +24768,9 @@
       <c r="O143" s="17">
         <v>31</v>
       </c>
-      <c r="P143" s="19"/>
+      <c r="P143" s="19">
+        <v>0</v>
+      </c>
       <c r="Q143" s="19"/>
       <c r="R143" s="19"/>
       <c r="S143" s="20" t="s">
@@ -24610,7 +24822,9 @@
       <c r="O144" s="17">
         <v>41</v>
       </c>
-      <c r="P144" s="19"/>
+      <c r="P144" s="19">
+        <v>0</v>
+      </c>
       <c r="Q144" s="19"/>
       <c r="R144" s="19"/>
       <c r="S144" s="20" t="s">
@@ -24662,7 +24876,9 @@
       <c r="O145" s="17">
         <v>51</v>
       </c>
-      <c r="P145" s="19"/>
+      <c r="P145" s="19">
+        <v>0</v>
+      </c>
       <c r="Q145" s="19"/>
       <c r="R145" s="19"/>
       <c r="S145" s="20" t="s">

--- a/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/臺東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大武" sheetId="1" r:id="rId1"/>
@@ -9827,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -13713,7 +13713,7 @@
         <v>121</v>
       </c>
       <c r="K74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="3">
         <v>250851</v>
@@ -13769,7 +13769,7 @@
         <v>121</v>
       </c>
       <c r="K75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" s="3">
         <v>250676</v>
@@ -13825,7 +13825,7 @@
         <v>121</v>
       </c>
       <c r="K76" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76" s="3">
         <v>250460</v>
@@ -13881,7 +13881,7 @@
         <v>121</v>
       </c>
       <c r="K77" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" s="3">
         <v>250221</v>
@@ -13937,7 +13937,7 @@
         <v>121</v>
       </c>
       <c r="K78" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78" s="3">
         <v>249954</v>
@@ -13993,7 +13993,7 @@
         <v>121</v>
       </c>
       <c r="K79" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L79" s="3">
         <v>249550</v>
@@ -14049,7 +14049,7 @@
         <v>121</v>
       </c>
       <c r="K80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="3">
         <v>250851</v>
@@ -14102,7 +14102,7 @@
         <v>121</v>
       </c>
       <c r="K81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L81" s="3">
         <v>250676</v>
@@ -14161,7 +14161,7 @@
         <v>121</v>
       </c>
       <c r="K82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82" s="3">
         <v>250460</v>
@@ -14214,7 +14214,7 @@
         <v>121</v>
       </c>
       <c r="K83" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>250221</v>
@@ -14267,7 +14267,7 @@
         <v>121</v>
       </c>
       <c r="K84" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L84" s="3">
         <v>249954</v>
@@ -14326,7 +14326,7 @@
         <v>121</v>
       </c>
       <c r="K85" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L85" s="3">
         <v>249550</v>
@@ -16867,7 +16867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
